--- a/Test Sequences/Test Sequence 420.xlsx
+++ b/Test Sequences/Test Sequence 420.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="33">
   <si>
     <t>Time (ms)</t>
   </si>
@@ -126,10 +126,13 @@
     <t>Exceed Action</t>
   </si>
   <si>
-    <t>OV-1</t>
-  </si>
-  <si>
-    <t>FV-1</t>
+    <t>OV-4</t>
+  </si>
+  <si>
+    <t>FV-4</t>
+  </si>
+  <si>
+    <t>NV-2</t>
   </si>
 </sst>
 </file>
@@ -230,6 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -245,12 +249,67 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -575,41 +634,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.75" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
-    <col min="9" max="9" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="26" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -646,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>23</v>
@@ -672,10 +731,10 @@
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>23</v>
@@ -701,45 +760,287 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="7">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="15">
-        <v>2000</v>
+      <c r="B8" s="10">
+        <v>400</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="15">
-        <v>3000</v>
+      <c r="B9" s="10">
+        <v>500</v>
       </c>
       <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>600</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>1600</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>1700</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
+        <v>1800</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>1900</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>2000</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>2100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>2200</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="10">
+        <v>2700</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="10">
+        <v>3200</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -748,20 +1049,36 @@
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="F2:K2"/>
   </mergeCells>
-  <conditionalFormatting sqref="D1:E3 D8:E1048576 E4:E7">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="CLOSE">
+  <conditionalFormatting sqref="D1:E3 D8:E17 E4:E7 D32:E1048576 E18:E31">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="CLOSE">
       <formula>NOT(ISERROR(SEARCH("CLOSE",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D7">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="CLOSE">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="CLOSE">
       <formula>NOT(ISERROR(SEARCH("CLOSE",D4)))</formula>
     </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="OPEN">
+      <formula>NOT(ISERROR(SEARCH("OPEN",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D31">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="CLOSE">
+      <formula>NOT(ISERROR(SEARCH("CLOSE",D22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="4" operator="containsText" text="OPEN">
+      <formula>NOT(ISERROR(SEARCH("OPEN",D22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D21">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="CLOSE">
+      <formula>NOT(ISERROR(SEARCH("CLOSE",D18)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="OPEN">
-      <formula>NOT(ISERROR(SEARCH("OPEN",D4)))</formula>
+      <formula>NOT(ISERROR(SEARCH("OPEN",D18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -814,17 +1131,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2"/>
-    <col min="2" max="2" width="9.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.125" style="7"/>
-    <col min="6" max="6" width="10.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="7"/>
-    <col min="9" max="9" width="12.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="26" width="9.125" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="7"/>
+    <col min="6" max="6" width="10.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="7"/>
+    <col min="9" max="9" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="26" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -839,20 +1156,20 @@
       <c r="K1" s="8"/>
     </row>
     <row r="2" spans="2:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
     </row>
     <row r="3" spans="2:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
@@ -970,10 +1287,10 @@
     <mergeCell ref="F2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="D1:E1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="CLOSE">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="CLOSE">
       <formula>NOT(ISERROR(SEARCH("CLOSE",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="OPEN">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="OPEN">
       <formula>NOT(ISERROR(SEARCH("OPEN",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1023,18 +1340,18 @@
   <dimension ref="B1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1049,7 +1366,7 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -1060,7 +1377,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1071,7 +1388,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>16</v>
@@ -1079,7 +1396,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1087,7 +1404,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>18</v>
@@ -1095,13 +1412,16 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
